--- a/biology/Médecine/1605_en_santé_et_médecine/1605_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1605_en_santé_et_médecine/1605_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1605_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1605_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1605 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1605_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1605_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mai : Trois médecins, Rodolfo Silvestri († 1609), Vincenzo Balducci et Pier Simone Fausti, assistent au conclave qui élit le pape Paul V[1].
-Le bâton d'Asclépios figure dans le sceau de l'université de Montpellier[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mai : Trois médecins, Rodolfo Silvestri († 1609), Vincenzo Balducci et Pier Simone Fausti, assistent au conclave qui élit le pape Paul V.
+Le bâton d'Asclépios figure dans le sceau de l'université de Montpellier.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1605_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1605_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean Riolan le Jeune (1580-1657), professeur royal d'anatomie et de botanique, publie une dissertation philosophique sur les sœurs siamoises nées à Paris la même année (De monstro nato Lutetiae anno Domini 1605[3]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean Riolan le Jeune (1580-1657), professeur royal d'anatomie et de botanique, publie une dissertation philosophique sur les sœurs siamoises nées à Paris la même année (De monstro nato Lutetiae anno Domini 1605).</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1605_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1605_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>19 octobre : Thomas Browne (mort en 1682), médecin et écrivain anglais[4].
-Andreas Cassius (mort en 1673), médecin et chimiste allemand[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>19 octobre : Thomas Browne (mort en 1682), médecin et écrivain anglais.
+Andreas Cassius (mort en 1673), médecin et chimiste allemand.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1605_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1605_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,12 +621,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolphe Occon (né en 1524), helléniste et médecin, né et établi à Augsbourg, inspecteur des apothicaireries et vicaire du doyen du collège des médecins de cette ville, fils d'Adolphe Occon (1494-1572) et neveu d'Adolphe Occon (1447-1503), l'un et l'autre également médecins[6].
-Michel Marescot[7] (né en 1539), Premier médecin[8] du roi Henri IV.
-Pierre Pena (né vers 1530), médecin du roi Henri III, auteur en 1570, avec Mathias de l'Obel, (1538-1616) d'un recueil d'observations sur les plantes (Stirpium adversaria nova[9]) « qui fait date dans l'histoire de la botanique[10] ».
-Jean Riolan l'Ancien (né en 1539), médecin français[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolphe Occon (né en 1524), helléniste et médecin, né et établi à Augsbourg, inspecteur des apothicaireries et vicaire du doyen du collège des médecins de cette ville, fils d'Adolphe Occon (1494-1572) et neveu d'Adolphe Occon (1447-1503), l'un et l'autre également médecins.
+Michel Marescot (né en 1539), Premier médecin du roi Henri IV.
+Pierre Pena (né vers 1530), médecin du roi Henri III, auteur en 1570, avec Mathias de l'Obel, (1538-1616) d'un recueil d'observations sur les plantes (Stirpium adversaria nova) « qui fait date dans l'histoire de la botanique ».
+Jean Riolan l'Ancien (né en 1539), médecin français.
 </t>
         </is>
       </c>
